--- a/Severance Calculator- KareyW.xlsx
+++ b/Severance Calculator- KareyW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fca16039ea603866/Desktop/Comp Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1014" documentId="8_{0F8F0EE6-8653-4D1B-B3B1-50CA1B1AF4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F042D05E-D72F-4A3A-9E81-C3EF01FFA432}"/>
+  <xr:revisionPtr revIDLastSave="1019" documentId="8_{0F8F0EE6-8653-4D1B-B3B1-50CA1B1AF4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7388959B-6885-4238-8FD1-2B5433692DC3}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="3760" windowWidth="18270" windowHeight="16740" xr2:uid="{6920F8F7-0EE7-40AD-B5B9-810458CCB03C}"/>
+    <workbookView xWindow="7390" yWindow="4040" windowWidth="35920" windowHeight="16740" xr2:uid="{6920F8F7-0EE7-40AD-B5B9-810458CCB03C}"/>
   </bookViews>
   <sheets>
     <sheet name="Severance Calculator" sheetId="1" r:id="rId1"/>
@@ -235,12 +235,6 @@
     <t>COMPANY</t>
   </si>
   <si>
-    <t>Enter EEID to auto-populate data on this template (from Workday, SAP, Oracle, ADP, eComp, or People Soft, etc.)</t>
-  </si>
-  <si>
-    <t>Prorated RSU $</t>
-  </si>
-  <si>
     <t>Prorated Bonus $</t>
   </si>
   <si>
@@ -281,6 +275,12 @@
   </si>
   <si>
     <t>2 Weeks per Yrs. of  Service</t>
+  </si>
+  <si>
+    <t>Accelerated RSU Vesting $</t>
+  </si>
+  <si>
+    <t>Enter EEID to auto-populate data on this template (from Workday, SAP, Oracle, ADP, ecomp, or People Soft, etc.)</t>
   </si>
 </sst>
 </file>
@@ -804,6 +804,90 @@
     <xf numFmtId="166" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -838,51 +922,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,48 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1288,209 +1288,209 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="4:10" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="4:10" s="5" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="4:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="56">
         <v>123456</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="32">
         <v>44606</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="57">
+        <v>60</v>
+      </c>
+      <c r="E10" s="32">
         <v>45044</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="58">
+        <v>61</v>
+      </c>
+      <c r="E11" s="33">
         <f>IFERROR((E10-E9)/365,"")</f>
         <v>1.2</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="32">
         <v>44562</v>
       </c>
-      <c r="I11" s="57"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="66">
         <v>44927</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="4:10" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="4:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="54">
         <v>190000</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="48">
+        <v>59</v>
+      </c>
+      <c r="H15" s="51">
         <f>IFERROR(E15/52,"")</f>
         <v>3653.8461538461538</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="39">
         <v>86666.7</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="38">
         <f>IFERROR(H17*E15,"")</f>
         <v>28500</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
@@ -1503,11 +1503,11 @@
       <c r="D18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="38">
         <f>SUM(E17,E16,E15)</f>
         <v>305166.7</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="7" t="s">
         <v>39</v>
       </c>
@@ -1518,210 +1518,218 @@
       <c r="I18" s="40"/>
     </row>
     <row r="19" spans="4:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="4:11" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="30">
         <v>16</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="50">
+        <v>54</v>
+      </c>
+      <c r="H21" s="52">
         <f>IFERROR(E23*H15,"")</f>
         <v>65769.230769230766</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="38">
+        <v>62</v>
+      </c>
+      <c r="E22" s="31">
         <v>2</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="41">
+        <v>53</v>
+      </c>
+      <c r="H22" s="47">
         <f>IFERROR(H18*E17,"")</f>
         <v>25064.383561643837</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="4:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="31">
         <f>E22+E21</f>
         <v>18</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="49">
+        <v>63</v>
+      </c>
+      <c r="H23" s="38">
         <f>IFERROR((E16/4)*3,"")</f>
         <v>65000.024999999994</v>
       </c>
-      <c r="I23" s="49"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="31">
         <v>15</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="41">
+        <v>55</v>
+      </c>
+      <c r="H24" s="47">
         <f>IFERROR(E24*H15,"")</f>
         <v>54807.692307692305</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="38"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="41">
+        <v>56</v>
+      </c>
+      <c r="H25" s="47">
         <f>IFERROR((E28+E26)*6,"")</f>
         <v>6094.38</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="48"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="49" cm="1">
+      <c r="E26" s="38" cm="1">
         <f t="array" ref="E26:F26">IFERROR(INDEX(Cobra!G2:G17,MATCH('Severance Calculator'!E25:F25,Cobra!C2:C17,0)),"")</f>
         <v>955.74</v>
       </c>
-      <c r="F26" s="49" t="str">
+      <c r="F26" s="38" t="str">
         <v/>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="41">
+        <v>57</v>
+      </c>
+      <c r="H26" s="47">
         <v>1500</v>
       </c>
-      <c r="I26" s="42"/>
+      <c r="I26" s="48"/>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="43">
+        <v>58</v>
+      </c>
+      <c r="H27" s="49">
         <v>6470.24</v>
       </c>
-      <c r="I27" s="44"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="4:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="67" cm="1">
+      <c r="E28" s="44" cm="1">
         <f t="array" ref="E28:F28">IFERROR(INDEX(Cobra!G2:G17,MATCH('Severance Calculator'!E27:F27,Cobra!C2:C17,0)),"")</f>
         <v>59.99</v>
       </c>
-      <c r="F28" s="67" t="str">
+      <c r="F28" s="44" t="str">
         <v/>
       </c>
       <c r="G28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="45">
         <f>SUM(H25+H24+H23+H22+H21)</f>
         <v>216735.71163856692</v>
       </c>
-      <c r="I28" s="69"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="4:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="4:11" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D31" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="D31" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a6y83ozO8r00YJ7JCvHPg3lf39JlEUPDfWmcTRP4O3M6lJ0x5LZSOW+S5CsaiczF/th6Xs+a209+ZhsU6JMdyA==" saltValue="/w+Yahn46K3K+/wVAK4EAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qFfoTaFJviMOAhSH9WHtvjGvt503oCe1d3Bmd6vxfP6mEZfhbHtMBdx+VchSiCdyoDVKCUmSDzSEre31ugZBuA==" saltValue="ubxKmVUr3LsDmuOq0r1tvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="46">
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H16:I16"/>
@@ -1738,26 +1746,18 @@
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D2:I4"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
